--- a/formatos/segundo_semestre_baja.xlsx
+++ b/formatos/segundo_semestre_baja.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DOCUMENTOS CSEIIO\PARA SISE\PLANTILLA PARA SUBIR CALIFICACIONES\PARA PLANTILLA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp3\htdocs\cseiio\formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A341D0FA-5722-4376-AC7E-C3FD3ACC06F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D3CB7E-8999-4858-945D-160CC7E9172A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2078,7 +2078,7 @@
       <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
